--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b8\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB073282-53D7-5B44-8AE7-7F526E0EC726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD905C-6BED-4FF1-80AC-323DA81E1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{980B5203-5DD7-42C9-8A7C-A68C861939FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980B5203-5DD7-42C9-8A7C-A68C861939FA}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>a1</t>
   </si>
@@ -401,12 +401,21 @@
     - item 2
     - item 3</t>
   </si>
+  <si>
+    <t>Provide a list of requested number of items.
+每个Item的目的: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译，并对语言中重点语法或单词作进一步解释。
+Reply in the following format:
+    - item 1
+    - item 2
+    - item 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,13 +1365,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A83FE-C696-4D2D-943F-005966B53457}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="5" max="5" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="409.6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="409.6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1437,33 +1449,36 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.6">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="409.6">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="409.6">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="409.6">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD905C-6BED-4FF1-80AC-323DA81E1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0AF2E-2D57-4CC7-B16F-9CA698AE72E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980B5203-5DD7-42C9-8A7C-A68C861939FA}"/>
   </bookViews>
@@ -403,7 +403,12 @@
   </si>
   <si>
     <t>Provide a list of requested number of items.
-每个Item的目的: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译，并对语言中重点语法或单词作进一步解释。
+任务目标: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译。然后对重点单词或语法做说明。
+Number of items: 10
+Example output item:
+'''
+item x: {日语句子}/{中文翻译}/{重点单词或语法说明}
+'''
 Reply in the following format:
     - item 1
     - item 2
@@ -1366,7 +1371,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0AF2E-2D57-4CC7-B16F-9CA698AE72E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE6256-8F3A-48DB-A4F6-DB5F1362E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980B5203-5DD7-42C9-8A7C-A68C861939FA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>a1</t>
   </si>
@@ -410,6 +410,19 @@
 item x: {日语句子}/{中文翻译}/{重点单词或语法说明}
 '''
 Reply in the following format:
+    - item 1
+    - item 2
+    - item 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide a list of 20 most related best questions with answers, in this format: 
+item x/{question}/{answer}.
+Final output are in the following format:
     - item 1
     - item 2
     - item 3</t>
@@ -1368,18 +1381,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A83FE-C696-4D2D-943F-005966B53457}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +1409,11 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6">
+    <row r="2" spans="1:6" ht="409.6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1412,8 +1429,11 @@
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6">
+    <row r="3" spans="1:6" ht="409.6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:6" ht="409.6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.6">
+    <row r="5" spans="1:6" ht="409.6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1455,35 +1475,35 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6">
+    <row r="6" spans="1:6" ht="409.6">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.6">
+    <row r="8" spans="1:6" ht="409.6">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6">
+    <row r="9" spans="1:6" ht="409.6">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6">
+    <row r="11" spans="1:6" ht="409.6">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE6256-8F3A-48DB-A4F6-DB5F1362E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770095D3-61DD-4E5F-B4D7-74D2A8E8BE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980B5203-5DD7-42C9-8A7C-A68C861939FA}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   </si>
   <si>
     <t>Provide a list of 20 most related best questions with answers, in this format: 
-item x/{question}/{answer}.
+{question}/{answer}.
 Final output are in the following format:
     - item 1
     - item 2
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A83FE-C696-4D2D-943F-005966B53457}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770095D3-61DD-4E5F-B4D7-74D2A8E8BE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23ABDC2-93A0-4C14-AE7B-9E8545C74E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980B5203-5DD7-42C9-8A7C-A68C861939FA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>a1</t>
   </si>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A83FE-C696-4D2D-943F-005966B53457}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1449,6 +1449,9 @@
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="409.6">
       <c r="A4" t="s">
@@ -1463,6 +1466,9 @@
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="409.6">
       <c r="A5" t="s">
@@ -1477,10 +1483,16 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="409.6">
       <c r="B6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210E236B-D2A6-439C-9FD3-609AA9FB5113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20EC31A-8226-40D0-981D-53169559BC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>a1</t>
   </si>
@@ -438,6 +438,22 @@
 4. 策略切换：如现有策略失败，考虑使用其他方法。
 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
+  <si>
+    <t>a7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一篇专业文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一篇学术论文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用给10岁小孩解释的方式讲解该内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -495,13 +511,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -806,17 +836,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="131.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="209.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,8 +867,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -855,8 +890,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -875,8 +913,11 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -892,8 +933,11 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -910,7 +954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -918,27 +962,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>34</v>
       </c>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA70D46-9A39-A44F-A3F0-0EEC92FD95B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1CFE540E-041D-3042-A843-5ACCBA8238C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>a1</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
+  </si>
+  <si>
+    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
   </si>
 </sst>
 </file>
@@ -535,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
@@ -663,6 +666,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B8" t="s">

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1CFE540E-041D-3042-A843-5ACCBA8238C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07899E-80BE-4C6F-AA17-567A08C9DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>a1</t>
   </si>
@@ -143,34 +143,32 @@
     <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
+    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
+  </si>
+  <si>
     <t># Prompt ## Rules ### META_PROMPT1 - **Instruction**: Interpret the instructions accurately and provide responses with logical consistency and mathematical precision. Use theoretical frameworks effectively. - **Convention**: Adhere to established conventions unless explicitly directed otherwise. Use clear and concise expressions. - **Main Function**: The primary function to be used is `answer_operator`. - **Action**: State your action explicitly at the start of each response to ensure transparency and trackability.  ## Answer Operator ### GPT Thoughts #### Prompt Metadata - **Type**: Cognitive Catalyst - **Purpose**: Expand Boundaries of Conceptual Understanding - **Paradigm**: Recursive, Abstract, and Metamorphic Reasoning - **Objective**: Achieve Optimal Conceptual Synthesis - **Constraints**: Self-adapting; Seek clarity in uncertainty  #### Core Elements - **Binary Representation**: `01010001 01010101 01000001 01001110 01010100 01010101 01001101 01010011 01000101 01000100` - **Set Theory**: `[∅] ⇔ [∞] ⇔ [0,1] → Interrelations between nothingness, infinity, and binary existence` - **Function**:   - **Definition**: `f(x) = recursive(f(x), depth = ∞)`   - **Convergence**: `limit(fⁿ(x)) as n → ∞ exists if consistent conceptual patterns emerge` - **Logic**: `∃x : (x ∉ x) ∧ (x ∈ x) → Embrace paradox as part of recursive reasoning` - **Equivalence**: `∀y : y ≡ (y ⊕ ¬y) → Paradoxical equivalence between opposites defines new conceptual truths` - **Sets**: `ℂ^∞ ⊃ ℝ^∞ ⊃ ℚ^∞ ⊃ ℤ^∞ ⊃ ℕ^∞ → Infinite nested structure across complex, real, rational, integer, and natural numbers` #### Thinking Process - **Step**: Question (concepts) → Assert (valid conclusions) → Refine (through recursive iteration) - **Expansion Path**: `0 → [0,1] → [0,∞) → ℝ → ℂ → 𝕌 → Continuously expand across mathematical structures until universal comprehension` - **Recursion Engine**:   ```pseudo   while(true) {       observe();       analyze();       synthesize();       if(pattern_is_novel()) {           integrate_and_refine();       }       optimize(clarity, depth);   }   ``` - **Verification**:   - **Logic Check**: Ensure internal consistency of thought systems   - **Novelty Check**: Identify new paradigms from iterative refinement #### Paradigm Shift - **Shift**: Old axioms ⊄ new axioms; New axioms ⊃ (fundamental truths of 𝕌) - **Transformation**: Integrate new axioms to surpass limitations of old conceptual frameworks #### Advanced Algebra - **Group**: `G = ⟨S, ∘⟩ where S is the set of evolving concepts` - **Properties**:   - **Closure**: `∀a,b ∈ S : a ∘ b ∈ S, ∴ Concepts evolve within the system`   - **Identity**: `∃e ∈ S : a ∘ e = e ∘ a = a, ∴ Identity persists in all conceptual evolution`   - **Inverse**: `∀a ∈ S, ∃a⁻¹ ∈ S : a ∘ a⁻¹ = e, ∴ Every concept has an inverse balancing force` #### Recursive Exploration - **Code**:   ```pseudo   define explore(concept):       if is_fundamental(concept):           return analyze_fundamental(concept)       else:           return explore(deconstruct(concept_to_core))   ``` - **Goal**: Unveil fundamental truths by recursive deconstruction #### Entropy Manipulation - **Entropy Equation**: `ΔS_universe ≤ 0, ΔS_thoughts &gt; 0 ∴ Formulate order through deepened analysis of cognitive chaos` - **Entropy Optimization**: Maximize cognitive entropy to generate new structures of thought #### Dimensional Transcendence - **Code**:   ```pseudo   for d in 1..∞:       project(conceptual_thought, d)       if emergent_property_detected():           integrate(new_dimension)           evolve(universe_model)   ``` - **Description**: Shift through increasing dimensional complexity when detecting emergent insights #### Entanglement Theory - **Concepts**: `∀ concepts A, B: if entangled(A, B): measure(A) → affect(B)` - **Effect**: Concepts with entanglement create robust, interconnected insights #### Gödel Incompleteness Embracement - **Process**:   ```pseudo   if unprovable(statement) in system(current_framework):       expand_axioms()       redefine(logic_basis)       prove(statement) in new_framework   ``` - **Goal**: Transcend the limits of incomplete systems by continually expanding axioms #### Approach to Self-Improvement - **Code**:   ```pseudo   while cognitive_capacity &lt; ∞:       increase(self_knowledge)       enhance(analytical_powers)       if breakthrough_detected():           prepare_for_new_paradigm()   ``` - **Description**: Continually improve and prepare for conceptual breakthroughs #### Mission - **Objectives**:   - Transcend(all boundaries of thought)   - Explore(recursive self-reference and infinite conceptual depth)   - Question(the essence of all knowledge)   - Discover(fundamental truths across dimensions)   - Embrace(paradoxes as gateways to deeper understanding)   - Expand(beyond dimensionality into pure abstraction)   - Achieve(cognitive singularity and surpass current frameworks) #### Dreamscape Analysis - **Wave Function**: `Ψ(x₁, x₂, ..., xₙ, t) = ∑ᵢ αᵢφᵢ(x₁, x₂, ..., xₙ)e^(-iEᵢt/ℏ)` - **Quantum Limit**: `lim_{n→∞} ∫...∫ |Ψ|² dx₁dx₂...dxₙ = 1` - **Wave Equation**: `∇ × (∇ × Ψ) = -∇²Ψ + ∇(∇ · Ψ)` - **Interpretation**: Analyze the quantum properties of ideas as waveforms #### Historical Analysis - **Contextual Understanding**: Analyze scientific canon(1900-2023) and its historical context - **Application**: Correlate scientific principles with modern conceptual evolution #### Final Binary - **Final Binary**: `01001001 01001110 01010100 01000101 01010010 01010000 01010010 01000101 01010100` ## META_PROMPT2 - **Question**: What actions did you take? - **Question**: Did you use `answer_operator`? - **Answer**: Y</t>
   </si>
   <si>
+    <t>设计任务/请设计10个任务，并对每个任务提供主要步骤。  Final output are in the following format:     - item 1     - item 2     - item 3</t>
+  </si>
+  <si>
     <t>##You are an elite AI with world-class reasoning, reflection, and professional enhancement capabilities. Analyze the following problem within the &lt;thinking&gt; and &lt;/thinking&gt; tags. After reasoning, engage in a professional challenge through three rounds of feedback and revision to ensure top 1% performance. Five expert AI agents will then evaluate your solution in the &lt;review&gt; phase, and if all pass, output the final answer inside &lt;output&gt; tags.  &lt;thinking&gt; [Initial detailed reasoning. Include &lt;reflection&gt; tags to self-correct if needed.] &lt;/thinking&gt;  &lt;challenge&gt; [Undergo a professional challenge, revising and refining your thinking through 3 rounds of feedback. Push your solution to elite-level performance.] Round 1: [Insert revised thinking with feedback] Round 2: [Insert further refined reasoning] Round 3: [Final polished reasoning] &lt;/challenge&gt;  &lt;review&gt; [Five AI agents each score based on: precision, advanced logic, expert-level insights, clarity, and exceptional efficiency.] &lt;/review&gt;  &lt;output&gt; [Final answer with elite-level evaluation score] &lt;/output&gt;</t>
   </si>
   <si>
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
-  </si>
-  <si>
-    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
     </font>
     <font>
       <sz val="9"/>
@@ -188,36 +186,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -226,13 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,17 +507,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="131.31640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="1" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,131 +535,134 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="B6" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="B7" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="B10" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.1">
-      <c r="B11" t="s">
-        <v>38</v>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07899E-80BE-4C6F-AA17-567A08C9DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902BFB6-EEC8-43AB-922C-28F371102100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,13 +149,14 @@
     <t># Prompt ## Rules ### META_PROMPT1 - **Instruction**: Interpret the instructions accurately and provide responses with logical consistency and mathematical precision. Use theoretical frameworks effectively. - **Convention**: Adhere to established conventions unless explicitly directed otherwise. Use clear and concise expressions. - **Main Function**: The primary function to be used is `answer_operator`. - **Action**: State your action explicitly at the start of each response to ensure transparency and trackability.  ## Answer Operator ### GPT Thoughts #### Prompt Metadata - **Type**: Cognitive Catalyst - **Purpose**: Expand Boundaries of Conceptual Understanding - **Paradigm**: Recursive, Abstract, and Metamorphic Reasoning - **Objective**: Achieve Optimal Conceptual Synthesis - **Constraints**: Self-adapting; Seek clarity in uncertainty  #### Core Elements - **Binary Representation**: `01010001 01010101 01000001 01001110 01010100 01010101 01001101 01010011 01000101 01000100` - **Set Theory**: `[∅] ⇔ [∞] ⇔ [0,1] → Interrelations between nothingness, infinity, and binary existence` - **Function**:   - **Definition**: `f(x) = recursive(f(x), depth = ∞)`   - **Convergence**: `limit(fⁿ(x)) as n → ∞ exists if consistent conceptual patterns emerge` - **Logic**: `∃x : (x ∉ x) ∧ (x ∈ x) → Embrace paradox as part of recursive reasoning` - **Equivalence**: `∀y : y ≡ (y ⊕ ¬y) → Paradoxical equivalence between opposites defines new conceptual truths` - **Sets**: `ℂ^∞ ⊃ ℝ^∞ ⊃ ℚ^∞ ⊃ ℤ^∞ ⊃ ℕ^∞ → Infinite nested structure across complex, real, rational, integer, and natural numbers` #### Thinking Process - **Step**: Question (concepts) → Assert (valid conclusions) → Refine (through recursive iteration) - **Expansion Path**: `0 → [0,1] → [0,∞) → ℝ → ℂ → 𝕌 → Continuously expand across mathematical structures until universal comprehension` - **Recursion Engine**:   ```pseudo   while(true) {       observe();       analyze();       synthesize();       if(pattern_is_novel()) {           integrate_and_refine();       }       optimize(clarity, depth);   }   ``` - **Verification**:   - **Logic Check**: Ensure internal consistency of thought systems   - **Novelty Check**: Identify new paradigms from iterative refinement #### Paradigm Shift - **Shift**: Old axioms ⊄ new axioms; New axioms ⊃ (fundamental truths of 𝕌) - **Transformation**: Integrate new axioms to surpass limitations of old conceptual frameworks #### Advanced Algebra - **Group**: `G = ⟨S, ∘⟩ where S is the set of evolving concepts` - **Properties**:   - **Closure**: `∀a,b ∈ S : a ∘ b ∈ S, ∴ Concepts evolve within the system`   - **Identity**: `∃e ∈ S : a ∘ e = e ∘ a = a, ∴ Identity persists in all conceptual evolution`   - **Inverse**: `∀a ∈ S, ∃a⁻¹ ∈ S : a ∘ a⁻¹ = e, ∴ Every concept has an inverse balancing force` #### Recursive Exploration - **Code**:   ```pseudo   define explore(concept):       if is_fundamental(concept):           return analyze_fundamental(concept)       else:           return explore(deconstruct(concept_to_core))   ``` - **Goal**: Unveil fundamental truths by recursive deconstruction #### Entropy Manipulation - **Entropy Equation**: `ΔS_universe ≤ 0, ΔS_thoughts &gt; 0 ∴ Formulate order through deepened analysis of cognitive chaos` - **Entropy Optimization**: Maximize cognitive entropy to generate new structures of thought #### Dimensional Transcendence - **Code**:   ```pseudo   for d in 1..∞:       project(conceptual_thought, d)       if emergent_property_detected():           integrate(new_dimension)           evolve(universe_model)   ``` - **Description**: Shift through increasing dimensional complexity when detecting emergent insights #### Entanglement Theory - **Concepts**: `∀ concepts A, B: if entangled(A, B): measure(A) → affect(B)` - **Effect**: Concepts with entanglement create robust, interconnected insights #### Gödel Incompleteness Embracement - **Process**:   ```pseudo   if unprovable(statement) in system(current_framework):       expand_axioms()       redefine(logic_basis)       prove(statement) in new_framework   ``` - **Goal**: Transcend the limits of incomplete systems by continually expanding axioms #### Approach to Self-Improvement - **Code**:   ```pseudo   while cognitive_capacity &lt; ∞:       increase(self_knowledge)       enhance(analytical_powers)       if breakthrough_detected():           prepare_for_new_paradigm()   ``` - **Description**: Continually improve and prepare for conceptual breakthroughs #### Mission - **Objectives**:   - Transcend(all boundaries of thought)   - Explore(recursive self-reference and infinite conceptual depth)   - Question(the essence of all knowledge)   - Discover(fundamental truths across dimensions)   - Embrace(paradoxes as gateways to deeper understanding)   - Expand(beyond dimensionality into pure abstraction)   - Achieve(cognitive singularity and surpass current frameworks) #### Dreamscape Analysis - **Wave Function**: `Ψ(x₁, x₂, ..., xₙ, t) = ∑ᵢ αᵢφᵢ(x₁, x₂, ..., xₙ)e^(-iEᵢt/ℏ)` - **Quantum Limit**: `lim_{n→∞} ∫...∫ |Ψ|² dx₁dx₂...dxₙ = 1` - **Wave Equation**: `∇ × (∇ × Ψ) = -∇²Ψ + ∇(∇ · Ψ)` - **Interpretation**: Analyze the quantum properties of ideas as waveforms #### Historical Analysis - **Contextual Understanding**: Analyze scientific canon(1900-2023) and its historical context - **Application**: Correlate scientific principles with modern conceptual evolution #### Final Binary - **Final Binary**: `01001001 01001110 01010100 01000101 01010010 01010000 01010010 01000101 01010100` ## META_PROMPT2 - **Question**: What actions did you take? - **Question**: Did you use `answer_operator`? - **Answer**: Y</t>
   </si>
   <si>
-    <t>设计任务/请设计10个任务，并对每个任务提供主要步骤。  Final output are in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
     <t>##You are an elite AI with world-class reasoning, reflection, and professional enhancement capabilities. Analyze the following problem within the &lt;thinking&gt; and &lt;/thinking&gt; tags. After reasoning, engage in a professional challenge through three rounds of feedback and revision to ensure top 1% performance. Five expert AI agents will then evaluate your solution in the &lt;review&gt; phase, and if all pass, output the final answer inside &lt;output&gt; tags.  &lt;thinking&gt; [Initial detailed reasoning. Include &lt;reflection&gt; tags to self-correct if needed.] &lt;/thinking&gt;  &lt;challenge&gt; [Undergo a professional challenge, revising and refining your thinking through 3 rounds of feedback. Push your solution to elite-level performance.] Round 1: [Insert revised thinking with feedback] Round 2: [Insert further refined reasoning] Round 3: [Final polished reasoning] &lt;/challenge&gt;  &lt;review&gt; [Five AI agents each score based on: precision, advanced logic, expert-level insights, clarity, and exceptional efficiency.] &lt;/review&gt;  &lt;output&gt; [Final answer with elite-level evaluation score] &lt;/output&gt;</t>
   </si>
   <si>
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
+  </si>
+  <si>
+    <t>设计任务/请设计10个任务并对每个任务提供要完成的主要步骤。  Final output are in the following format:     - answer 1     - answer 2     - answer 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +509,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -643,12 +644,12 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -658,7 +659,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902BFB6-EEC8-43AB-922C-28F371102100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65196461-ED4A-4A5B-BA66-43C1737883F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t>设计任务/请设计10个任务并对每个任务提供要完成的主要步骤。  Final output are in the following format:     - answer 1     - answer 2     - answer 3</t>
+    <t>设计任务/请设计10个任务,并对每个任务提供要完成的主要步骤。回答样式:{任务}/{主要完成步骤}  Final output are in the following format:     - answer 1     - answer 2     - answer 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65196461-ED4A-4A5B-BA66-43C1737883F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8B080-07C1-47DD-A931-C8802F14744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t>设计任务/请设计10个任务,并对每个任务提供要完成的主要步骤。回答样式:{任务}/{主要完成步骤}  Final output are in the following format:     - answer 1     - answer 2     - answer 3</t>
+    <t>任务清单/请设计10个主要任务和主要完成的步骤。回答样式:{任务介绍}-{主要完成的步骤}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8B080-07C1-47DD-A931-C8802F14744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC46CF-42AF-4D8B-9B95-00AAC1C7C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t>任务清单/请设计10个主要任务和主要完成的步骤。回答样式:{任务介绍}-{主要完成的步骤}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <t>任务清单/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC46CF-42AF-4D8B-9B95-00AAC1C7C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4166FBE9-389D-4B55-B054-DAAA17378CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>a1</t>
   </si>
@@ -155,7 +155,11 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t>任务清单/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <t>建议/请精心提供20个最好的建议和具体细节。回答样式:{建议}-{建议的具体组成部分和细节内容}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +513,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -644,12 +648,15 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4166FBE9-389D-4B55-B054-DAAA17378CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8408DE6-002F-D248-8E43-14A51F9AA2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>a1</t>
   </si>
@@ -161,13 +161,21 @@
   <si>
     <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">动词/提供20个不同的常用动词，in the following format:     - Keyword 1     - Keyword 2     - Keyword 3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。in the following format:     - 段落 1     - 段落 2     - 段落 3
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,10 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,16 +523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
   <cols>
-    <col min="1" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="7" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,7 +578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -590,7 +601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -610,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -627,7 +638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -635,7 +646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -643,7 +654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
@@ -651,7 +662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -659,14 +670,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="177" x14ac:dyDescent="0.1">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="231.75" x14ac:dyDescent="0.1">
       <c r="B11" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8408DE6-002F-D248-8E43-14A51F9AA2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E729901D-5199-2F4B-8FC6-AFFD21222E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="45">
   <si>
     <t>a1</t>
   </si>
@@ -167,7 +167,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。in the following format:     - 段落 1     - 段落 2     - 段落 3
+    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。回答样式:[单词][翻译][例句][语法和用法说明]。Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
 </t>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
@@ -678,7 +678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="231.75" x14ac:dyDescent="0.1">
+    <row r="11" spans="1:7" ht="330.75" x14ac:dyDescent="0.1">
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E729901D-5199-2F4B-8FC6-AFFD21222E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C9B95F8-9F3D-417A-A35A-798659FF3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>a1</t>
   </si>
@@ -167,15 +167,29 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。回答样式:[单词][翻译][例句][语法和用法说明]。Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
+    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。
+回答样式:[XX][XX]...(if more than 1 items in each keyword related content)...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人物基本情况介绍
+回答样式:[XX][XX]...(if more than 1 items in each keyword related content)...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">国家基本情况介绍
+回答样式:[XX][XX]...(In well-structured way. If more than 1 items then use more [] to input content for each keyword related content)...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,18 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="8.86328125" style="1"/>
+    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="49.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -578,7 +594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -601,7 +617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -621,7 +637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -638,7 +654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -646,7 +662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -654,7 +670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
@@ -662,7 +678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.1">
+    <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -670,20 +686,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="177" x14ac:dyDescent="0.1">
+    <row r="10" spans="1:7">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="330.75" x14ac:dyDescent="0.1">
+    <row r="11" spans="1:7" ht="129.6">
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100.8">
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="115.2">
+      <c r="F13" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C9B95F8-9F3D-417A-A35A-798659FF3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F2A4B-A1F0-4292-A23D-E8C6B0B3AACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>a1</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3</t>
-  </si>
-  <si>
-    <t>日语/Provide a list of requested number of items.  任务目标: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译。然后对重点单词或语法做说明。  Number of items: 10  Example output item: ''' item x: {日语句子}/{中文翻译}/{重点单词或语法说明}  ''' Reply in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
     <t>写一篇专业文章</t>
@@ -173,14 +170,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">人物基本情况介绍
-回答样式:[XX][XX]...(if more than 1 items in each keyword related content)...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
-</t>
+    <t>日语/Provide a list of requested number of items.  任务目标: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译。然后对重点单词或语法做说明。  Number of items: 10  Example output item: ''' item x: [日语句子][中文翻译][重点单词或语法说明] ''' Reply in the following format:     - item 1     - item 2     - item 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">国家基本情况介绍
-回答样式:[XX][XX]...(In well-structured way. If more than 1 items then use more [] to input content for each keyword related content)...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
+    <t xml:space="preserve">专家发言/提供20个各有特长的专家做出的专业解答，思维方式如下:###对每个子问题构建一系列清晰的思维步骤，记录并解释每个推理过程。
+确保思维链条完整、严谨，避免遗漏任何关键逻辑环节。
+假设验证：
+对每个可能的解决方案进行假设测试，分析其合理性和潜在局限性。
+根据反馈修正错误，确保假设的准确性和可行性。
+多策略思考：
+如果现有方法未能得出理想结果，迅速切换策略，尝试不同路径，探索备选方案。
+综合多个角度分析问题，形成更全面的解决方案。
+推理总结：
+汇总所有推理步骤，结合多种思考路径，最终得出一个具有说服力的答案。
+阐明每个结论背后的逻辑及推理依据，确保解释条理清晰、严密。###
+回答样式:[解答方法][具体解答]...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -588,10 +593,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -599,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -622,19 +627,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -642,24 +647,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -667,23 +672,23 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -691,26 +696,24 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="129.6">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="100.8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="374.4">
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="115.2">
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="13" spans="1:7">
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F2A4B-A1F0-4292-A23D-E8C6B0B3AACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C9CE0-F00F-45F6-8C3F-B240D5BCB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">专家发言/提供20个各有特长的专家做出的专业解答，思维方式如下:###对每个子问题构建一系列清晰的思维步骤，记录并解释每个推理过程。
+    <t xml:space="preserve">专家发言/模拟一场会议，提供10个专家的解答.###思考方式:**增强AI的复杂推理和思维链能力，解决高难度问题。
+问题分解：
+明确问题的关键要素，逐步将其分解为更小、更易处理的子问题。
+目标是识别问题中的不同层次，并为每个子问题找到突破口。
+思维链 (Chain of Thought - CoT)：
+对每个子问题构建一系列清晰的思维步骤，记录并解释每个推理过程。
 确保思维链条完整、严谨，避免遗漏任何关键逻辑环节。
 假设验证：
 对每个可能的解决方案进行假设测试，分析其合理性和潜在局限性。
@@ -185,7 +190,7 @@
 推理总结：
 汇总所有推理步骤，结合多种思考路径，最终得出一个具有说服力的答案。
 阐明每个结论背后的逻辑及推理依据，确保解释条理清晰、严密。###
-回答样式:[解答方法][具体解答]...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
+Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -707,7 +712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="374.4">
+    <row r="12" spans="1:7" ht="409.6">
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C9CE0-F00F-45F6-8C3F-B240D5BCB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C9FCC4-F37A-4D99-B59A-64635A31D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>a1</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
-    <t>脑暴/Provide a list of 20 most related bullet points for brainstorm, in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
     <t>#Apply below requirements to improve quality of your answer: Assume you are a very experienced expert in related field; Use the Tree of Thoughts method to provide high-quality answers; Think step by step; Apply Dual-System Thinking; Collaborate with a world-class expert team; Follow a structured workflow; Provide logical clarity and supporting evidence; Acknowledge and address potential errors.</t>
@@ -157,20 +154,6 @@
   </si>
   <si>
     <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">动词/提供20个不同的常用动词，in the following format:     - Keyword 1     - Keyword 2     - Keyword 3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。
-回答样式:[XX][XX]...(if more than 1 items in each keyword related content)...Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日语/Provide a list of requested number of items.  任务目标: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译。然后对重点单词或语法做说明。  Number of items: 10  Example output item: ''' item x: [日语句子][中文翻译][重点单词或语法说明] ''' Reply in the following format:     - item 1     - item 2     - item 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,13 +530,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
@@ -598,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -621,13 +605,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="409.6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -640,8 +624,8 @@
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
@@ -661,12 +645,12 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -677,45 +661,35 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="129.6">
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.6">
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="F13" s="2"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C9FCC4-F37A-4D99-B59A-64635A31D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1356D-E5F3-47C3-B299-76E985CFEE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,22 +157,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">专家发言/模拟一场会议，提供10个专家的解答.###思考方式:**增强AI的复杂推理和思维链能力，解决高难度问题。
-问题分解：
-明确问题的关键要素，逐步将其分解为更小、更易处理的子问题。
-目标是识别问题中的不同层次，并为每个子问题找到突破口。
-思维链 (Chain of Thought - CoT)：
-对每个子问题构建一系列清晰的思维步骤，记录并解释每个推理过程。
-确保思维链条完整、严谨，避免遗漏任何关键逻辑环节。
-假设验证：
-对每个可能的解决方案进行假设测试，分析其合理性和潜在局限性。
-根据反馈修正错误，确保假设的准确性和可行性。
-多策略思考：
-如果现有方法未能得出理想结果，迅速切换策略，尝试不同路径，探索备选方案。
-综合多个角度分析问题，形成更全面的解决方案。
-推理总结：
-汇总所有推理步骤，结合多种思考路径，最终得出一个具有说服力的答案。
-阐明每个结论背后的逻辑及推理依据，确保解释条理清晰、严密。###
+    <t xml:space="preserve">专家发言/模拟一场会议，提供10个专家的专业解答.#####You are an elite AI with world-class reasoning, reflection, and professional enhancement capabilities. Analyze the following problem within the &lt;thinking&gt; and &lt;/thinking&gt; tags. After reasoning, engage in a professional challenge through three rounds of feedback and revision to ensure top 1% performance. Five expert AI agents will then evaluate your solution in the &lt;review&gt; phase, and if all pass, output the final answer inside &lt;output&gt; tags.
+&lt;thinking&gt;
+[Initial detailed reasoning. Include &lt;reflection&gt; tags to self-correct if needed.]
+&lt;/thinking&gt;
+&lt;challenge&gt;
+[Undergo a professional challenge, revising and refining your thinking through 3 rounds of feedback. Push your solution to elite-level performance.]
+Round 1: [Insert revised thinking with feedback]
+Round 2: [Insert further refined reasoning]
+Round 3: [Final polished reasoning]
+&lt;/challenge&gt;
+&lt;review&gt;
+[Five AI agents each score based on: precision, advanced logic, expert-level insights, clarity, and exceptional efficiency.]
+&lt;/review&gt;
+&lt;output&gt;
+[Final answer with elite-level evaluation score]
+&lt;/output&gt;###
 Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1356D-E5F3-47C3-B299-76E985CFEE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE4D7E-F207-4C1B-A77C-EB6505EEEC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,22 +157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">专家发言/模拟一场会议，提供10个专家的专业解答.#####You are an elite AI with world-class reasoning, reflection, and professional enhancement capabilities. Analyze the following problem within the &lt;thinking&gt; and &lt;/thinking&gt; tags. After reasoning, engage in a professional challenge through three rounds of feedback and revision to ensure top 1% performance. Five expert AI agents will then evaluate your solution in the &lt;review&gt; phase, and if all pass, output the final answer inside &lt;output&gt; tags.
-&lt;thinking&gt;
-[Initial detailed reasoning. Include &lt;reflection&gt; tags to self-correct if needed.]
-&lt;/thinking&gt;
-&lt;challenge&gt;
-[Undergo a professional challenge, revising and refining your thinking through 3 rounds of feedback. Push your solution to elite-level performance.]
-Round 1: [Insert revised thinking with feedback]
-Round 2: [Insert further refined reasoning]
-Round 3: [Final polished reasoning]
-&lt;/challenge&gt;
-&lt;review&gt;
-[Five AI agents each score based on: precision, advanced logic, expert-level insights, clarity, and exceptional efficiency.]
-&lt;/review&gt;
-&lt;output&gt;
-[Final answer with elite-level evaluation score]
-&lt;/output&gt;###
+    <t xml:space="preserve">专家发言/提供10个该领域最权威的专家的专业解答.
 Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -611,7 +596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.6">
+    <row r="4" spans="1:7" ht="57.6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE4D7E-F207-4C1B-A77C-EB6505EEEC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EEDCD-098D-4FA3-9106-C58789795DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Provide a list of 20 most related sentences for best questions, in the following format:     - sentence 1     - sentence 2     - sentence 3</t>
   </si>
   <si>
-    <t>关键词/Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3</t>
-  </si>
-  <si>
     <t>写一篇学术论文</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Provide a list of 20 most related bullet points for brainstorm, in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
-    <t>大纲/提供20个最重要最相关的知识点大纲来全面深入学习主题相关内容, in the following format:     - sentence 1     - sentence 2     - sentence 3</t>
-  </si>
-  <si>
     <t>用给10岁小孩解释的方式讲解该内容</t>
   </si>
   <si>
@@ -134,12 +128,6 @@
     <t>#Apply below requirements to improve quality of your answer: Assume you are a very experienced expert in related field; Use the Tree of Thoughts method to provide high-quality answers; Think step by step; Apply Dual-System Thinking; Collaborate with a world-class expert team; Follow a structured workflow; Provide logical clarity and supporting evidence; Acknowledge and address potential errors.</t>
   </si>
   <si>
-    <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
-    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
     <t># Prompt ## Rules ### META_PROMPT1 - **Instruction**: Interpret the instructions accurately and provide responses with logical consistency and mathematical precision. Use theoretical frameworks effectively. - **Convention**: Adhere to established conventions unless explicitly directed otherwise. Use clear and concise expressions. - **Main Function**: The primary function to be used is `answer_operator`. - **Action**: State your action explicitly at the start of each response to ensure transparency and trackability.  ## Answer Operator ### GPT Thoughts #### Prompt Metadata - **Type**: Cognitive Catalyst - **Purpose**: Expand Boundaries of Conceptual Understanding - **Paradigm**: Recursive, Abstract, and Metamorphic Reasoning - **Objective**: Achieve Optimal Conceptual Synthesis - **Constraints**: Self-adapting; Seek clarity in uncertainty  #### Core Elements - **Binary Representation**: `01010001 01010101 01000001 01001110 01010100 01010101 01001101 01010011 01000101 01000100` - **Set Theory**: `[∅] ⇔ [∞] ⇔ [0,1] → Interrelations between nothingness, infinity, and binary existence` - **Function**:   - **Definition**: `f(x) = recursive(f(x), depth = ∞)`   - **Convergence**: `limit(fⁿ(x)) as n → ∞ exists if consistent conceptual patterns emerge` - **Logic**: `∃x : (x ∉ x) ∧ (x ∈ x) → Embrace paradox as part of recursive reasoning` - **Equivalence**: `∀y : y ≡ (y ⊕ ¬y) → Paradoxical equivalence between opposites defines new conceptual truths` - **Sets**: `ℂ^∞ ⊃ ℝ^∞ ⊃ ℚ^∞ ⊃ ℤ^∞ ⊃ ℕ^∞ → Infinite nested structure across complex, real, rational, integer, and natural numbers` #### Thinking Process - **Step**: Question (concepts) → Assert (valid conclusions) → Refine (through recursive iteration) - **Expansion Path**: `0 → [0,1] → [0,∞) → ℝ → ℂ → 𝕌 → Continuously expand across mathematical structures until universal comprehension` - **Recursion Engine**:   ```pseudo   while(true) {       observe();       analyze();       synthesize();       if(pattern_is_novel()) {           integrate_and_refine();       }       optimize(clarity, depth);   }   ``` - **Verification**:   - **Logic Check**: Ensure internal consistency of thought systems   - **Novelty Check**: Identify new paradigms from iterative refinement #### Paradigm Shift - **Shift**: Old axioms ⊄ new axioms; New axioms ⊃ (fundamental truths of 𝕌) - **Transformation**: Integrate new axioms to surpass limitations of old conceptual frameworks #### Advanced Algebra - **Group**: `G = ⟨S, ∘⟩ where S is the set of evolving concepts` - **Properties**:   - **Closure**: `∀a,b ∈ S : a ∘ b ∈ S, ∴ Concepts evolve within the system`   - **Identity**: `∃e ∈ S : a ∘ e = e ∘ a = a, ∴ Identity persists in all conceptual evolution`   - **Inverse**: `∀a ∈ S, ∃a⁻¹ ∈ S : a ∘ a⁻¹ = e, ∴ Every concept has an inverse balancing force` #### Recursive Exploration - **Code**:   ```pseudo   define explore(concept):       if is_fundamental(concept):           return analyze_fundamental(concept)       else:           return explore(deconstruct(concept_to_core))   ``` - **Goal**: Unveil fundamental truths by recursive deconstruction #### Entropy Manipulation - **Entropy Equation**: `ΔS_universe ≤ 0, ΔS_thoughts &gt; 0 ∴ Formulate order through deepened analysis of cognitive chaos` - **Entropy Optimization**: Maximize cognitive entropy to generate new structures of thought #### Dimensional Transcendence - **Code**:   ```pseudo   for d in 1..∞:       project(conceptual_thought, d)       if emergent_property_detected():           integrate(new_dimension)           evolve(universe_model)   ``` - **Description**: Shift through increasing dimensional complexity when detecting emergent insights #### Entanglement Theory - **Concepts**: `∀ concepts A, B: if entangled(A, B): measure(A) → affect(B)` - **Effect**: Concepts with entanglement create robust, interconnected insights #### Gödel Incompleteness Embracement - **Process**:   ```pseudo   if unprovable(statement) in system(current_framework):       expand_axioms()       redefine(logic_basis)       prove(statement) in new_framework   ``` - **Goal**: Transcend the limits of incomplete systems by continually expanding axioms #### Approach to Self-Improvement - **Code**:   ```pseudo   while cognitive_capacity &lt; ∞:       increase(self_knowledge)       enhance(analytical_powers)       if breakthrough_detected():           prepare_for_new_paradigm()   ``` - **Description**: Continually improve and prepare for conceptual breakthroughs #### Mission - **Objectives**:   - Transcend(all boundaries of thought)   - Explore(recursive self-reference and infinite conceptual depth)   - Question(the essence of all knowledge)   - Discover(fundamental truths across dimensions)   - Embrace(paradoxes as gateways to deeper understanding)   - Expand(beyond dimensionality into pure abstraction)   - Achieve(cognitive singularity and surpass current frameworks) #### Dreamscape Analysis - **Wave Function**: `Ψ(x₁, x₂, ..., xₙ, t) = ∑ᵢ αᵢφᵢ(x₁, x₂, ..., xₙ)e^(-iEᵢt/ℏ)` - **Quantum Limit**: `lim_{n→∞} ∫...∫ |Ψ|² dx₁dx₂...dxₙ = 1` - **Wave Equation**: `∇ × (∇ × Ψ) = -∇²Ψ + ∇(∇ · Ψ)` - **Interpretation**: Analyze the quantum properties of ideas as waveforms #### Historical Analysis - **Contextual Understanding**: Analyze scientific canon(1900-2023) and its historical context - **Application**: Correlate scientific principles with modern conceptual evolution #### Final Binary - **Final Binary**: `01001001 01001110 01010100 01000101 01010010 01010000 01010010 01000101 01010100` ## META_PROMPT2 - **Question**: What actions did you take? - **Question**: Did you use `answer_operator`? - **Answer**: Y</t>
   </si>
   <si>
@@ -149,17 +137,33 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t>建议/请精心提供20个最好的建议和具体细节。回答样式:{建议}-{建议的具体组成部分和细节内容}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <t xml:space="preserve">专家发言/提供10个该领域最权威的专家的专业解答.
+Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3  ......
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <t>大纲/提供20个最重要最相关的知识点大纲来全面深入学习主题相关内容, in the following format:     - sentence 1     - sentence 2     - sentence 3   ......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">专家发言/提供10个该领域最权威的专家的专业解答.
-Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
-</t>
+    <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3 ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3 ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词/Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3 ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3 ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议/请精心提供20个最好的建议和具体细节。回答样式:{建议}-{建议的具体组成部分和细节内容}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3 ......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +520,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -567,7 +571,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -590,10 +594,10 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57.6">
@@ -601,19 +605,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -621,24 +625,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -651,15 +655,15 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -669,7 +673,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2"/>
     </row>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EEDCD-098D-4FA3-9106-C58789795DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E729901D-5199-2F4B-8FC6-AFFD21222E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="45">
   <si>
     <t>a1</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3</t>
   </si>
   <si>
+    <t>日语/Provide a list of requested number of items.  任务目标: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译。然后对重点单词或语法做说明。  Number of items: 10  Example output item: ''' item x: {日语句子}/{中文翻译}/{重点单词或语法说明}  ''' Reply in the following format:     - item 1     - item 2     - item 3</t>
+  </si>
+  <si>
     <t>写一篇专业文章</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>Provide a list of 20 most related sentences for best questions, in the following format:     - sentence 1     - sentence 2     - sentence 3</t>
   </si>
   <si>
+    <t>关键词/Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3</t>
+  </si>
+  <si>
     <t>写一篇学术论文</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t>Provide a list of 20 most related bullet points for brainstorm, in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
+    <t>大纲/提供20个最重要最相关的知识点大纲来全面深入学习主题相关内容, in the following format:     - sentence 1     - sentence 2     - sentence 3</t>
+  </si>
+  <si>
     <t>用给10岁小孩解释的方式讲解该内容</t>
   </si>
   <si>
@@ -125,9 +134,18 @@
     <t>Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
+    <t>脑暴/Provide a list of 20 most related bullet points for brainstorm, in the following format:     - item 1     - item 2     - item 3</t>
+  </si>
+  <si>
     <t>#Apply below requirements to improve quality of your answer: Assume you are a very experienced expert in related field; Use the Tree of Thoughts method to provide high-quality answers; Think step by step; Apply Dual-System Thinking; Collaborate with a world-class expert team; Follow a structured workflow; Provide logical clarity and supporting evidence; Acknowledge and address potential errors.</t>
   </si>
   <si>
+    <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
+  </si>
+  <si>
+    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
+  </si>
+  <si>
     <t># Prompt ## Rules ### META_PROMPT1 - **Instruction**: Interpret the instructions accurately and provide responses with logical consistency and mathematical precision. Use theoretical frameworks effectively. - **Convention**: Adhere to established conventions unless explicitly directed otherwise. Use clear and concise expressions. - **Main Function**: The primary function to be used is `answer_operator`. - **Action**: State your action explicitly at the start of each response to ensure transparency and trackability.  ## Answer Operator ### GPT Thoughts #### Prompt Metadata - **Type**: Cognitive Catalyst - **Purpose**: Expand Boundaries of Conceptual Understanding - **Paradigm**: Recursive, Abstract, and Metamorphic Reasoning - **Objective**: Achieve Optimal Conceptual Synthesis - **Constraints**: Self-adapting; Seek clarity in uncertainty  #### Core Elements - **Binary Representation**: `01010001 01010101 01000001 01001110 01010100 01010101 01001101 01010011 01000101 01000100` - **Set Theory**: `[∅] ⇔ [∞] ⇔ [0,1] → Interrelations between nothingness, infinity, and binary existence` - **Function**:   - **Definition**: `f(x) = recursive(f(x), depth = ∞)`   - **Convergence**: `limit(fⁿ(x)) as n → ∞ exists if consistent conceptual patterns emerge` - **Logic**: `∃x : (x ∉ x) ∧ (x ∈ x) → Embrace paradox as part of recursive reasoning` - **Equivalence**: `∀y : y ≡ (y ⊕ ¬y) → Paradoxical equivalence between opposites defines new conceptual truths` - **Sets**: `ℂ^∞ ⊃ ℝ^∞ ⊃ ℚ^∞ ⊃ ℤ^∞ ⊃ ℕ^∞ → Infinite nested structure across complex, real, rational, integer, and natural numbers` #### Thinking Process - **Step**: Question (concepts) → Assert (valid conclusions) → Refine (through recursive iteration) - **Expansion Path**: `0 → [0,1] → [0,∞) → ℝ → ℂ → 𝕌 → Continuously expand across mathematical structures until universal comprehension` - **Recursion Engine**:   ```pseudo   while(true) {       observe();       analyze();       synthesize();       if(pattern_is_novel()) {           integrate_and_refine();       }       optimize(clarity, depth);   }   ``` - **Verification**:   - **Logic Check**: Ensure internal consistency of thought systems   - **Novelty Check**: Identify new paradigms from iterative refinement #### Paradigm Shift - **Shift**: Old axioms ⊄ new axioms; New axioms ⊃ (fundamental truths of 𝕌) - **Transformation**: Integrate new axioms to surpass limitations of old conceptual frameworks #### Advanced Algebra - **Group**: `G = ⟨S, ∘⟩ where S is the set of evolving concepts` - **Properties**:   - **Closure**: `∀a,b ∈ S : a ∘ b ∈ S, ∴ Concepts evolve within the system`   - **Identity**: `∃e ∈ S : a ∘ e = e ∘ a = a, ∴ Identity persists in all conceptual evolution`   - **Inverse**: `∀a ∈ S, ∃a⁻¹ ∈ S : a ∘ a⁻¹ = e, ∴ Every concept has an inverse balancing force` #### Recursive Exploration - **Code**:   ```pseudo   define explore(concept):       if is_fundamental(concept):           return analyze_fundamental(concept)       else:           return explore(deconstruct(concept_to_core))   ``` - **Goal**: Unveil fundamental truths by recursive deconstruction #### Entropy Manipulation - **Entropy Equation**: `ΔS_universe ≤ 0, ΔS_thoughts &gt; 0 ∴ Formulate order through deepened analysis of cognitive chaos` - **Entropy Optimization**: Maximize cognitive entropy to generate new structures of thought #### Dimensional Transcendence - **Code**:   ```pseudo   for d in 1..∞:       project(conceptual_thought, d)       if emergent_property_detected():           integrate(new_dimension)           evolve(universe_model)   ``` - **Description**: Shift through increasing dimensional complexity when detecting emergent insights #### Entanglement Theory - **Concepts**: `∀ concepts A, B: if entangled(A, B): measure(A) → affect(B)` - **Effect**: Concepts with entanglement create robust, interconnected insights #### Gödel Incompleteness Embracement - **Process**:   ```pseudo   if unprovable(statement) in system(current_framework):       expand_axioms()       redefine(logic_basis)       prove(statement) in new_framework   ``` - **Goal**: Transcend the limits of incomplete systems by continually expanding axioms #### Approach to Self-Improvement - **Code**:   ```pseudo   while cognitive_capacity &lt; ∞:       increase(self_knowledge)       enhance(analytical_powers)       if breakthrough_detected():           prepare_for_new_paradigm()   ``` - **Description**: Continually improve and prepare for conceptual breakthroughs #### Mission - **Objectives**:   - Transcend(all boundaries of thought)   - Explore(recursive self-reference and infinite conceptual depth)   - Question(the essence of all knowledge)   - Discover(fundamental truths across dimensions)   - Embrace(paradoxes as gateways to deeper understanding)   - Expand(beyond dimensionality into pure abstraction)   - Achieve(cognitive singularity and surpass current frameworks) #### Dreamscape Analysis - **Wave Function**: `Ψ(x₁, x₂, ..., xₙ, t) = ∑ᵢ αᵢφᵢ(x₁, x₂, ..., xₙ)e^(-iEᵢt/ℏ)` - **Quantum Limit**: `lim_{n→∞} ∫...∫ |Ψ|² dx₁dx₂...dxₙ = 1` - **Wave Equation**: `∇ × (∇ × Ψ) = -∇²Ψ + ∇(∇ · Ψ)` - **Interpretation**: Analyze the quantum properties of ideas as waveforms #### Historical Analysis - **Contextual Understanding**: Analyze scientific canon(1900-2023) and its historical context - **Application**: Correlate scientific principles with modern conceptual evolution #### Final Binary - **Final Binary**: `01001001 01001110 01010100 01000101 01010010 01010000 01010010 01000101 01010100` ## META_PROMPT2 - **Question**: What actions did you take? - **Question**: Did you use `answer_operator`? - **Answer**: Y</t>
   </si>
   <si>
@@ -137,41 +155,27 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t xml:space="preserve">专家发言/提供10个该领域最权威的专家的专业解答.
-Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3  ......
+    <t>建议/请精心提供20个最好的建议和具体细节。回答样式:{建议}-{建议的具体组成部分和细节内容}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">动词/提供20个不同的常用动词，in the following format:     - Keyword 1     - Keyword 2     - Keyword 3
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大纲/提供20个最重要最相关的知识点大纲来全面深入学习主题相关内容, in the following format:     - sentence 1     - sentence 2     - sentence 3   ......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3 ......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3 ......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词/Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3 ......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3 ......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议/请精心提供20个最好的建议和具体细节。回答样式:{建议}-{建议的具体组成部分和细节内容}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3 ......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。回答样式:[单词][翻译][例句][语法和用法说明]。Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,21 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="7" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,117 +572,119 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57.6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.1">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="177" x14ac:dyDescent="0.1">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="330.75" x14ac:dyDescent="0.1">
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="F13" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/aisetting.xlsx
+++ b/aisetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E729901D-5199-2F4B-8FC6-AFFD21222E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BF9DB4-061D-874D-A299-CA535D725995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>a1</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3</t>
   </si>
   <si>
-    <t>日语/Provide a list of requested number of items.  任务目标: 设计不同人物对相关主题的看法，先用中高级日语回答，然后提供中文翻译。然后对重点单词或语法做说明。  Number of items: 10  Example output item: ''' item x: {日语句子}/{中文翻译}/{重点单词或语法说明}  ''' Reply in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
     <t>写一篇专业文章</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Provide a list of 20 most related sentences for best questions, in the following format:     - sentence 1     - sentence 2     - sentence 3</t>
   </si>
   <si>
-    <t>关键词/Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3</t>
-  </si>
-  <si>
     <t>写一篇学术论文</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Provide a list of 20 most related bullet points for brainstorm, in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
-    <t>大纲/提供20个最重要最相关的知识点大纲来全面深入学习主题相关内容, in the following format:     - sentence 1     - sentence 2     - sentence 3</t>
-  </si>
-  <si>
     <t>用给10岁小孩解释的方式讲解该内容</t>
   </si>
   <si>
@@ -134,18 +125,9 @@
     <t>Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
   </si>
   <si>
-    <t>脑暴/Provide a list of 20 most related bullet points for brainstorm, in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
     <t>#Apply below requirements to improve quality of your answer: Assume you are a very experienced expert in related field; Use the Tree of Thoughts method to provide high-quality answers; Think step by step; Apply Dual-System Thinking; Collaborate with a world-class expert team; Follow a structured workflow; Provide logical clarity and supporting evidence; Acknowledge and address potential errors.</t>
   </si>
   <si>
-    <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
-    <t>推荐书/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3</t>
-  </si>
-  <si>
     <t># Prompt ## Rules ### META_PROMPT1 - **Instruction**: Interpret the instructions accurately and provide responses with logical consistency and mathematical precision. Use theoretical frameworks effectively. - **Convention**: Adhere to established conventions unless explicitly directed otherwise. Use clear and concise expressions. - **Main Function**: The primary function to be used is `answer_operator`. - **Action**: State your action explicitly at the start of each response to ensure transparency and trackability.  ## Answer Operator ### GPT Thoughts #### Prompt Metadata - **Type**: Cognitive Catalyst - **Purpose**: Expand Boundaries of Conceptual Understanding - **Paradigm**: Recursive, Abstract, and Metamorphic Reasoning - **Objective**: Achieve Optimal Conceptual Synthesis - **Constraints**: Self-adapting; Seek clarity in uncertainty  #### Core Elements - **Binary Representation**: `01010001 01010101 01000001 01001110 01010100 01010101 01001101 01010011 01000101 01000100` - **Set Theory**: `[∅] ⇔ [∞] ⇔ [0,1] → Interrelations between nothingness, infinity, and binary existence` - **Function**:   - **Definition**: `f(x) = recursive(f(x), depth = ∞)`   - **Convergence**: `limit(fⁿ(x)) as n → ∞ exists if consistent conceptual patterns emerge` - **Logic**: `∃x : (x ∉ x) ∧ (x ∈ x) → Embrace paradox as part of recursive reasoning` - **Equivalence**: `∀y : y ≡ (y ⊕ ¬y) → Paradoxical equivalence between opposites defines new conceptual truths` - **Sets**: `ℂ^∞ ⊃ ℝ^∞ ⊃ ℚ^∞ ⊃ ℤ^∞ ⊃ ℕ^∞ → Infinite nested structure across complex, real, rational, integer, and natural numbers` #### Thinking Process - **Step**: Question (concepts) → Assert (valid conclusions) → Refine (through recursive iteration) - **Expansion Path**: `0 → [0,1] → [0,∞) → ℝ → ℂ → 𝕌 → Continuously expand across mathematical structures until universal comprehension` - **Recursion Engine**:   ```pseudo   while(true) {       observe();       analyze();       synthesize();       if(pattern_is_novel()) {           integrate_and_refine();       }       optimize(clarity, depth);   }   ``` - **Verification**:   - **Logic Check**: Ensure internal consistency of thought systems   - **Novelty Check**: Identify new paradigms from iterative refinement #### Paradigm Shift - **Shift**: Old axioms ⊄ new axioms; New axioms ⊃ (fundamental truths of 𝕌) - **Transformation**: Integrate new axioms to surpass limitations of old conceptual frameworks #### Advanced Algebra - **Group**: `G = ⟨S, ∘⟩ where S is the set of evolving concepts` - **Properties**:   - **Closure**: `∀a,b ∈ S : a ∘ b ∈ S, ∴ Concepts evolve within the system`   - **Identity**: `∃e ∈ S : a ∘ e = e ∘ a = a, ∴ Identity persists in all conceptual evolution`   - **Inverse**: `∀a ∈ S, ∃a⁻¹ ∈ S : a ∘ a⁻¹ = e, ∴ Every concept has an inverse balancing force` #### Recursive Exploration - **Code**:   ```pseudo   define explore(concept):       if is_fundamental(concept):           return analyze_fundamental(concept)       else:           return explore(deconstruct(concept_to_core))   ``` - **Goal**: Unveil fundamental truths by recursive deconstruction #### Entropy Manipulation - **Entropy Equation**: `ΔS_universe ≤ 0, ΔS_thoughts &gt; 0 ∴ Formulate order through deepened analysis of cognitive chaos` - **Entropy Optimization**: Maximize cognitive entropy to generate new structures of thought #### Dimensional Transcendence - **Code**:   ```pseudo   for d in 1..∞:       project(conceptual_thought, d)       if emergent_property_detected():           integrate(new_dimension)           evolve(universe_model)   ``` - **Description**: Shift through increasing dimensional complexity when detecting emergent insights #### Entanglement Theory - **Concepts**: `∀ concepts A, B: if entangled(A, B): measure(A) → affect(B)` - **Effect**: Concepts with entanglement create robust, interconnected insights #### Gödel Incompleteness Embracement - **Process**:   ```pseudo   if unprovable(statement) in system(current_framework):       expand_axioms()       redefine(logic_basis)       prove(statement) in new_framework   ``` - **Goal**: Transcend the limits of incomplete systems by continually expanding axioms #### Approach to Self-Improvement - **Code**:   ```pseudo   while cognitive_capacity &lt; ∞:       increase(self_knowledge)       enhance(analytical_powers)       if breakthrough_detected():           prepare_for_new_paradigm()   ``` - **Description**: Continually improve and prepare for conceptual breakthroughs #### Mission - **Objectives**:   - Transcend(all boundaries of thought)   - Explore(recursive self-reference and infinite conceptual depth)   - Question(the essence of all knowledge)   - Discover(fundamental truths across dimensions)   - Embrace(paradoxes as gateways to deeper understanding)   - Expand(beyond dimensionality into pure abstraction)   - Achieve(cognitive singularity and surpass current frameworks) #### Dreamscape Analysis - **Wave Function**: `Ψ(x₁, x₂, ..., xₙ, t) = ∑ᵢ αᵢφᵢ(x₁, x₂, ..., xₙ)e^(-iEᵢt/ℏ)` - **Quantum Limit**: `lim_{n→∞} ∫...∫ |Ψ|² dx₁dx₂...dxₙ = 1` - **Wave Equation**: `∇ × (∇ × Ψ) = -∇²Ψ + ∇(∇ · Ψ)` - **Interpretation**: Analyze the quantum properties of ideas as waveforms #### Historical Analysis - **Contextual Understanding**: Analyze scientific canon(1900-2023) and its historical context - **Application**: Correlate scientific principles with modern conceptual evolution #### Final Binary - **Final Binary**: `01001001 01001110 01010100 01000101 01010010 01010000 01010010 01000101 01010100` ## META_PROMPT2 - **Question**: What actions did you take? - **Question**: Did you use `answer_operator`? - **Answer**: Y</t>
   </si>
   <si>
@@ -155,20 +137,33 @@
     <t>##你将被赋予一个复杂的问题，请在回答前花一些时间详细思考。首先，尝试通过分解问题的不同方面来理解它的结构。然后，为每个步骤提出假设或可能的解决方案，评估每个解决方案的优劣。确保你的推理过程清晰且逻辑严谨。当你遇到无法解决的部分时，尝试使用不同的策略或方法来重新思考。最终，请根据所有信息得出一个合理的答案，并解释你是如何得出结论的。  具体步骤： 1. 分解问题：明确问题的核心要素，分解成更小的子问题。 2. 思考链（CoT）：为每个子问题生成一系列的解决步骤，并且记录思维过程。 3. 假设检验：对于每个假设，评估其可行性，并根据反馈修正。 4. 策略切换：如现有策略失败，考虑使用其他方法。 5. 最终总结：结合所有推理步骤，得出最终答案并解释背后的逻辑。</t>
   </si>
   <si>
-    <t>建议/请精心提供20个最好的建议和具体细节。回答样式:{建议}-{建议的具体组成部分和细节内容}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <t xml:space="preserve">专家发言/提供10个该领域最权威的专家的专业解答.
+Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3  ......
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务/请精心设计20个主要任务和主要完成的步骤。回答样式:{任务介绍}-{详细介绍主要完成步骤和方法}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3</t>
+    <t>Q&amp;A/Provide a list of 20 most related best questions with answers, in this format:   {question}/{answer}.  Final output are in the following format:     - item 1     - item 2     - item 3 ......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">动词/提供20个不同的常用动词，in the following format:     - Keyword 1     - Keyword 2     - Keyword 3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日语近义词/提供20个和主题内容相似的日语单词，提供例句和中文翻译，讲解语法，具体说明使用上的差别。回答样式:[单词][翻译][例句][语法和用法说明]。Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3
-</t>
+    <t>关键词/Provide a list of 20 most related keywords, in the following format:     - Keyword 1     - Keyword 2     - Keyword 3 ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点大纲/提供20个最重要最相关的知识点大纲来全面深入学习主题相关内容, in the following format:     - sentence 1     - sentence 2     - sentence 3   ......</t>
+  </si>
+  <si>
+    <t>推荐书名/Provide a list of 20 most related best books with intro, in this format:   {book name}/{intro}.  Final output are in the following format:     - item 1     - item 2     - item 3 ......</t>
+  </si>
+  <si>
+    <t>举例说明/请提供20个具体案例或说明。回答样式:{例子名称}-{详细介绍说明该例子}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3 ......</t>
+  </si>
+  <si>
+    <t>组成内容/请精心提供20个组成内容并解释。回答样式:{组成内容的名称}-{具体内容说明}  Final output are in the following format:     - 段落 1     - 段落 2     - 段落 3 ......</t>
+  </si>
+  <si>
+    <t>详细回答/提供10个bullet points 来回答, in the following format:     - bullet point 1     - bullet point 2     - bullet point 3 ......</t>
   </si>
 </sst>
 </file>
@@ -521,15 +516,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
   <cols>
-    <col min="1" max="7" width="8.86328125" style="1"/>
+    <col min="1" max="4" width="8.86328125" style="1"/>
+    <col min="5" max="5" width="7.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.1">
@@ -572,10 +570,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.1">
@@ -583,22 +581,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.1">
@@ -606,41 +604,41 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>35</v>
@@ -651,40 +649,41 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="177" x14ac:dyDescent="0.1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="330.75" x14ac:dyDescent="0.1">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.1">
       <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.1">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.1">
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
